--- a/diverse/tidsplan-V24.xlsx
+++ b/diverse/tidsplan-V24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\met4\diverse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8F31BA-76B9-4059-A711-4DF05E25F7DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA0C2BC-8B27-4A6C-970C-A1485EAAB89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{904F4144-1937-4711-AEEF-991D1AD6F23A}"/>
   </bookViews>
@@ -229,9 +229,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -269,7 +269,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -375,7 +375,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -517,7 +517,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -528,7 +528,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
